--- a/data/trans_dic/P1804_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Provincia-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.1424136751229583</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.04631746182990444</v>
+        <v>0.04631746182990443</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.10759417529772</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0472792546000739</v>
+        <v>0.04452999412333105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004363836356430842</v>
+        <v>0.004512166107910119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1014557608984176</v>
+        <v>0.1071155866162511</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03015637866763256</v>
+        <v>0.02988929708054462</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08296640483653979</v>
+        <v>0.08247790825792599</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01988904006829039</v>
+        <v>0.02040944490486611</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.108994395309079</v>
+        <v>0.108374830587312</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02912980329364614</v>
+        <v>0.03225745530975022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1881022122527198</v>
+        <v>0.1962987706802682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06864528205617465</v>
+        <v>0.06988377554506416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1355972314630269</v>
+        <v>0.1377104489610567</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04308972274949357</v>
+        <v>0.04207855325481567</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02752131879393525</v>
+        <v>0.02957411675974006</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04547609054349169</v>
+        <v>0.04509636058715592</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.009619321708635975</v>
+        <v>0.01047316031407663</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04193519394266083</v>
+        <v>0.0415944417621437</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.005892142694845914</v>
+        <v>0.005851061434145142</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06585018362982356</v>
+        <v>0.06788416450869325</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01985612494137764</v>
+        <v>0.01615960155313657</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09169794774546745</v>
+        <v>0.09107378516302703</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03534550983725299</v>
+        <v>0.0379015586665009</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07069903051025062</v>
+        <v>0.07146015432014281</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.02115458111471621</v>
+        <v>0.02124224188458259</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.03316312673826661</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05892890045938035</v>
+        <v>0.05892890045938036</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01064897945736204</v>
+        <v>0.00921810915309218</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02068505563122684</v>
+        <v>0.02124894589597538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02394271478540468</v>
+        <v>0.02496292515636155</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05735027489984507</v>
+        <v>0.05786035522694737</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02165248562197302</v>
+        <v>0.02152797810821185</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04535049524456722</v>
+        <v>0.04428812585879899</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0436204296395542</v>
+        <v>0.04302341225574446</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05636277926911933</v>
+        <v>0.05951196938278414</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06944368202896692</v>
+        <v>0.07143794149297858</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1097464528236397</v>
+        <v>0.1046388833935083</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04982461686734108</v>
+        <v>0.04954672626863938</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07557336666489489</v>
+        <v>0.07663517949213997</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.2939267164260977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3403837516895527</v>
+        <v>0.3403837516895528</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2545523282519783</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1788442926406703</v>
+        <v>0.1721590056077506</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2880289504971439</v>
+        <v>0.2806974002366937</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2454551857713341</v>
+        <v>0.2490271062051488</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3006150154314542</v>
+        <v>0.2992127532776533</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2222794844668075</v>
+        <v>0.2253088610105258</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3081523398354656</v>
+        <v>0.3050137804213891</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2637437393998779</v>
+        <v>0.257864819527954</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.409681861355021</v>
+        <v>0.4058058362259402</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3442112956250132</v>
+        <v>0.3466152232663642</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3856205086032327</v>
+        <v>0.387216845958115</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2871616072249297</v>
+        <v>0.2897417318638006</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3828099196708067</v>
+        <v>0.379418443811768</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.04985323743278928</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0169117928298933</v>
+        <v>0.01691179282989329</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04067632711746953</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01322777427541027</v>
+        <v>0.01335786077964143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003114235145999888</v>
+        <v>0.00304226079707756</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02587080379885646</v>
+        <v>0.02435395979086444</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.008004014173731698</v>
+        <v>0.008167921176962281</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02438023213112089</v>
+        <v>0.02487160894597907</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007041601436284441</v>
+        <v>0.007327091517730111</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06151967564639106</v>
+        <v>0.06227952600688476</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02976879527154505</v>
+        <v>0.02729173172447698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0906102898185551</v>
+        <v>0.08812482982014366</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03109040917055327</v>
+        <v>0.03145229645170357</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06508943856422898</v>
+        <v>0.06325289685400907</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02326911159597986</v>
+        <v>0.02360448091790672</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.02617582077192726</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.0949040231760705</v>
+        <v>0.09490402317607045</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01333178422013587</v>
@@ -1046,19 +1046,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.0406903294548985</v>
+        <v>0.04217439902778722</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01064319904960948</v>
+        <v>0.0107011309466924</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07055014832457737</v>
+        <v>0.06699056805229857</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.00525511915349918</v>
+        <v>0.005518933027474185</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05840178429397347</v>
+        <v>0.05952092696935015</v>
       </c>
     </row>
     <row r="21">
@@ -1070,19 +1070,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.08912736149744588</v>
+        <v>0.09166175658032287</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05228214428765549</v>
+        <v>0.05110031961176011</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1292480663036579</v>
+        <v>0.1255255858239889</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02583675082308018</v>
+        <v>0.02589324244774015</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09820652279590983</v>
+        <v>0.09752355058434806</v>
       </c>
     </row>
     <row r="22">
@@ -1106,7 +1106,7 @@
         <v>0.07069503067831658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.09182236841051722</v>
+        <v>0.09182236841051719</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.05964210029141628</v>
@@ -1123,22 +1123,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03222864816046667</v>
+        <v>0.03368155927773527</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03958825403510305</v>
+        <v>0.03947344330313604</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05401353616274297</v>
+        <v>0.05460544449077533</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07077759327638546</v>
+        <v>0.0723039872700587</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04779176024168268</v>
+        <v>0.0485748918741588</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06264167524551403</v>
+        <v>0.06095872618788423</v>
       </c>
     </row>
     <row r="24">
@@ -1149,22 +1149,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06714130384690721</v>
+        <v>0.06682134000146837</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07867975978311015</v>
+        <v>0.0788972517263735</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.093052836997019</v>
+        <v>0.09356586859176189</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1134030187929979</v>
+        <v>0.112510352252964</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07547848823325615</v>
+        <v>0.07487617036071707</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08996561034859082</v>
+        <v>0.08770845574151956</v>
       </c>
     </row>
     <row r="25">
@@ -1205,22 +1205,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04193679442653197</v>
+        <v>0.04294598208725289</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009671843222269967</v>
+        <v>0.009741523080572301</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07860176476199432</v>
+        <v>0.07810208099221924</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01732140348453602</v>
+        <v>0.01728210826761205</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0655337163998764</v>
+        <v>0.06571103375964425</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01457087749752067</v>
+        <v>0.01592620543716932</v>
       </c>
     </row>
     <row r="27">
@@ -1231,22 +1231,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07526327855528606</v>
+        <v>0.07630444441536857</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02890039203370433</v>
+        <v>0.02876763856270237</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1238278927635653</v>
+        <v>0.1226725165161117</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03789942142414883</v>
+        <v>0.0378457509101286</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.09488853556071922</v>
+        <v>0.09319803642512405</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02887875032820505</v>
+        <v>0.02970335390624487</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>0.06295446880426407</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.09928202700589622</v>
@@ -1276,7 +1276,7 @@
         <v>0.08151140115277844</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
     </row>
     <row r="29">
@@ -1287,22 +1287,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
     </row>
     <row r="30">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="31">
@@ -1519,22 +1519,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13889</v>
+        <v>13081</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1391</v>
+        <v>1439</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>29291</v>
+        <v>30925</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9531</v>
+        <v>9447</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>48325</v>
+        <v>48040</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>12628</v>
+        <v>12958</v>
       </c>
     </row>
     <row r="7">
@@ -1545,22 +1545,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>32018</v>
+        <v>31836</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9288</v>
+        <v>10285</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>54306</v>
+        <v>56672</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21696</v>
+        <v>22088</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>78981</v>
+        <v>80211</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>27358</v>
+        <v>26716</v>
       </c>
     </row>
     <row r="8">
@@ -1627,22 +1627,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13832</v>
+        <v>14863</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>23788</v>
+        <v>23589</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>5245</v>
+        <v>5710</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>43011</v>
+        <v>42662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6339</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="11">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33095</v>
+        <v>34117</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>10537</v>
+        <v>8575</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>47966</v>
+        <v>47639</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>19271</v>
+        <v>20664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>72513</v>
+        <v>73294</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>22759</v>
+        <v>22854</v>
       </c>
     </row>
     <row r="12">
@@ -1735,22 +1735,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3392</v>
+        <v>2937</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6536</v>
+        <v>6715</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8052</v>
+        <v>8395</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20408</v>
+        <v>20589</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>14180</v>
+        <v>14098</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>30468</v>
+        <v>29754</v>
       </c>
     </row>
     <row r="15">
@@ -1761,22 +1761,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13896</v>
+        <v>13706</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17810</v>
+        <v>18805</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23355</v>
+        <v>24025</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39052</v>
+        <v>37235</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32629</v>
+        <v>32447</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50773</v>
+        <v>51486</v>
       </c>
     </row>
     <row r="16">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66166</v>
+        <v>63693</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>107477</v>
+        <v>104741</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95061</v>
+        <v>96444</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>126848</v>
+        <v>126256</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>168320</v>
+        <v>170614</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>245014</v>
+        <v>242519</v>
       </c>
     </row>
     <row r="19">
@@ -1869,22 +1869,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>97576</v>
+        <v>95401</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>152871</v>
+        <v>151424</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>133307</v>
+        <v>134238</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>162717</v>
+        <v>163390</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>217452</v>
+        <v>219406</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>304375</v>
+        <v>301678</v>
       </c>
     </row>
     <row r="20">
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2794</v>
+        <v>2821</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5655</v>
+        <v>5323</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1819</v>
+        <v>1856</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>10479</v>
+        <v>10690</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3048</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="23">
@@ -1977,22 +1977,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12994</v>
+        <v>13155</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6122</v>
+        <v>5613</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>19806</v>
+        <v>19263</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>7064</v>
+        <v>7146</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>27976</v>
+        <v>27187</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10073</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="24">
@@ -2060,19 +2060,19 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>11015</v>
+        <v>11417</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2907</v>
+        <v>2923</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18608</v>
+        <v>17669</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2818</v>
+        <v>2959</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31213</v>
+        <v>31811</v>
       </c>
     </row>
     <row r="27">
@@ -2084,19 +2084,19 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>24127</v>
+        <v>24813</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14279</v>
+        <v>13956</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>34089</v>
+        <v>33107</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>13855</v>
+        <v>13885</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>52487</v>
+        <v>52122</v>
       </c>
     </row>
     <row r="28">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21160</v>
+        <v>22114</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>28491</v>
+        <v>28409</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>37339</v>
+        <v>37748</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>54252</v>
+        <v>55422</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>64416</v>
+        <v>65472</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>93098</v>
+        <v>90597</v>
       </c>
     </row>
     <row r="31">
@@ -2189,22 +2189,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>44082</v>
+        <v>43872</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>56625</v>
+        <v>56781</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>64327</v>
+        <v>64682</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>86925</v>
+        <v>86241</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>101734</v>
+        <v>100922</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>133707</v>
+        <v>130352</v>
       </c>
     </row>
     <row r="32">
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>32651</v>
+        <v>33437</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7719</v>
+        <v>7774</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>64938</v>
+        <v>64525</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>14400</v>
+        <v>14367</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>105165</v>
+        <v>105450</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>23742</v>
+        <v>25950</v>
       </c>
     </row>
     <row r="35">
@@ -2297,22 +2297,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>58599</v>
+        <v>59409</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>23065</v>
+        <v>22959</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>102303</v>
+        <v>101348</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>31507</v>
+        <v>31462</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>152272</v>
+        <v>149560</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>47055</v>
+        <v>48399</v>
       </c>
     </row>
     <row r="36">
@@ -2379,22 +2379,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
     </row>
     <row r="39">
@@ -2405,22 +2405,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
     </row>
     <row r="40">
